--- a/data/suelo/Suelo Cuauhtemoc Alzada.xlsx
+++ b/data/suelo/Suelo Cuauhtemoc Alzada.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\programación\python\pronaces_analisis\data\suelo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE97FE0-EEE0-4215-8A41-4C4A835B50FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ALZ-SS-01" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ALZ-SS-02" sheetId="2" r:id="rId5"/>
+    <sheet name="ALZ-SS-01" sheetId="1" r:id="rId1"/>
+    <sheet name="ALZ-SS-02" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgcEqEqlDCansdt20a4woKrlrb0Sw=="/>
@@ -208,85 +217,89 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-80A]d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="14">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF003366"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF003366"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -296,7 +309,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -336,33 +349,46 @@
     </fill>
   </fills>
   <borders count="43">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -372,27 +398,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -402,23 +435,30 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -426,134 +466,194 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -561,17 +661,21 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -581,27 +685,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -611,19 +722,23 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -633,23 +748,30 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -657,8 +779,10 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -666,8 +790,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -675,201 +801,221 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="80">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="5" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="5" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="42" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="7" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="7" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -880,11 +1026,17 @@
     <xdr:ext cx="2057400" cy="1247775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Universidad de Colima / Marco Filosófico - Escudo descargable" id="0" name="image2.png"/>
+        <xdr:cNvPr id="2" name="image2.png" descr="Universidad de Colima / Marco Filosófico - Escudo descargable">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -908,67 +1060,17 @@
     <xdr:ext cx="285750" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="3" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="714375" cy="533400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="714375" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -986,7 +1088,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -997,11 +1099,17 @@
     <xdr:ext cx="2057400" cy="1247775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Universidad de Colima / Marco Filosófico - Escudo descargable" id="0" name="image2.png"/>
+        <xdr:cNvPr id="2" name="image2.png" descr="Universidad de Colima / Marco Filosófico - Escudo descargable">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1025,67 +1133,17 @@
     <xdr:ext cx="285750" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="3" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="714375" cy="533400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="714375" cy="533400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1103,7 +1161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1293,23 +1351,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:25" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1319,11 +1377,26 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+    </row>
+    <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1333,8 +1406,24 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1343,8 +1432,24 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1371,635 +1476,669 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="U6" s="6" t="s">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="U6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A7" s="44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+    </row>
+    <row r="8" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="16" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+    </row>
+    <row r="11" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="19" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="58"/>
+    </row>
+    <row r="13" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="35">
-        <v>44848.0</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="36" t="s">
+      <c r="B14" s="49">
+        <v>44848</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="37" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="N14" s="67"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="69"/>
+    </row>
+    <row r="15" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="41">
-        <v>0.6833333333333332</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="36" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="51">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="25"/>
+      <c r="H15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="42" t="s">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="43"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="44"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="N15" s="70"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="54">
         <v>0.6972222222222223</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="50" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="51" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="53"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="55" t="s">
+      <c r="O16" s="13"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A18" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A19" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="42" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="15" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="44"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="27"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="58" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="42" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="15" t="s">
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="44"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="27"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="15" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="42" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="60" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="44"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="42" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="15" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="44"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="61" t="s">
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="62" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="51" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="53"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="63" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="33"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="66" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A27" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
-    </row>
-    <row r="28" ht="185.25" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="44"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="69" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" ht="185.25" customHeight="1">
+      <c r="A28" s="39"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="27"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A29" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="70" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="53"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="9" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="12" t="s">
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A32" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="42" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="44"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="61" t="s">
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="27"/>
+    </row>
+    <row r="33" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="51" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="53"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:16" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2954,11 +3093,50 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:P13"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J1:Y3"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:P10"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="I32:J32"/>
@@ -2975,72 +3153,30 @@
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="I28:P28"/>
-    <mergeCell ref="J1:Y3"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:P13"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:P24"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:25" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -3050,11 +3186,26 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+    </row>
+    <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -3064,8 +3215,24 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -3074,8 +3241,24 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -3102,641 +3285,675 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="U6" s="6" t="s">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="U6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A7" s="44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+    </row>
+    <row r="8" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="16" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+    </row>
+    <row r="11" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="19" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="58"/>
+    </row>
+    <row r="13" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="35">
-        <v>44848.0</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="36" t="s">
+      <c r="B14" s="49">
+        <v>44848</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="37" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="73" t="s">
+      <c r="N14" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="O14" s="68"/>
+      <c r="P14" s="69"/>
+    </row>
+    <row r="15" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="41">
-        <v>0.6284722222222222</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="36" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="51">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="25"/>
+      <c r="H15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="42" t="s">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="74" t="s">
+      <c r="N15" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="44"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="O15" s="25"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="54">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="50" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="51" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="53"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="55" t="s">
+      <c r="N16" s="71"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A18" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A19" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="42" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="15" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="44"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="27"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="75" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="42" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="15" t="s">
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="44"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="27"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="15" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="42" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="60" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="44"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="42" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="15" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="44"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="61" t="s">
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="62" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="51" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="62" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="53"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="63" t="s">
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="33"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="66" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A27" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
-    </row>
-    <row r="28" ht="209.25" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="44"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="69" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" ht="209.25" customHeight="1">
+      <c r="A28" s="39"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="27"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A29" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="70" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="53"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="9" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="12" t="s">
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A32" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="42" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="44"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="61" t="s">
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="27"/>
+    </row>
+    <row r="33" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="51" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="53"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:16" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -4691,11 +4908,50 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:P13"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J1:Y3"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:P10"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="I32:J32"/>
@@ -4712,53 +4968,13 @@
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="I28:P28"/>
-    <mergeCell ref="J1:Y3"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:P13"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:P24"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
